--- a/bd/modificar_carrito - 14052020.xlsx
+++ b/bd/modificar_carrito - 14052020.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Diseño Pantallas</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>.- Obtener latitud y longitud google mpas (pendiente)</t>
-  </si>
-  <si>
-    <t>.- Crear modal para que al pagar se pueda elegir : Boleta , Factura</t>
   </si>
   <si>
     <t>.- Que no se vea la direccion si no estoy Logueado</t>
@@ -227,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -381,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -403,6 +406,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,13 +688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D50"/>
+  <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,39 +724,43 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6"/>
     </row>
@@ -767,62 +776,68 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -830,57 +845,61 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -888,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -896,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -904,37 +923,39 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -942,44 +963,36 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3"/>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1019,7 +1032,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1029,7 +1042,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
       <c r="G8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1055,7 +1068,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19">
         <v>233</v>
@@ -1067,10 +1080,10 @@
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
@@ -1079,10 +1092,10 @@
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
@@ -1101,7 +1114,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="15"/>
     </row>
